--- a/20200806課題対応.xlsx
+++ b/20200806課題対応.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\いろいろ\課題対応\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A12E11-7AEB-4064-AED2-3069FDFD5575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCB2C1-AFEB-430C-AECE-1C126D5B08A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75F9207C-EC70-419D-9688-A43B61802B89}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
   <si>
     <t>○課題対応におけるテーマ</t>
     <rPh sb="1" eb="3">
@@ -590,10 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Visual Studio Codeのインストール、まとめ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学習結果資料作成、提出</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -955,6 +951,51 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio Codeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML5関連サイト</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.atmarkit.co.jp/ait/articles/1810/26/news021.html</t>
+  </si>
+  <si>
+    <t>https://home.hirosaki-u.ac.jp/heroic-2020/%E5%88%A9%E7%94%A8%E4%BE%8B/visual-studio-code-%E3%82%92%E4%BD%BF%E3%81%A3%E3%81%9F-javascript-%E3%83%97%E3%83%AD%E3%82%B0%E3%83%A9%E3%83%9F%E3%83%B3%E3%82%B0/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio Code関連サイト</t>
+    <rPh sb="18" eb="20">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト読み込み</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio Codeの機能確認</t>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3216,7 +3257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3F0094-8502-4B3E-8779-6E8EE0A31FE5}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3256,113 +3297,148 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>82</v>
+      <c r="B11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>162</v>
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>160</v>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>164</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{6BE7F36E-1804-4891-8B53-0FDA25F097C5}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{ED28952A-1096-477D-B51E-81A4B2E568ED}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{4D935A52-5501-4F0A-BEBB-F38261DC2B47}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{9732C780-1DCC-4800-986E-64CDBC919B12}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{6BE7F36E-1804-4891-8B53-0FDA25F097C5}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{ED28952A-1096-477D-B51E-81A4B2E568ED}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{4D935A52-5501-4F0A-BEBB-F38261DC2B47}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{9732C780-1DCC-4800-986E-64CDBC919B12}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{4E63DFE6-EECF-4EA6-B490-10E11E7AD519}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{A0169926-6C0F-4CE7-975A-89646BF74DFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3600,7 +3676,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>58</v>
@@ -3608,18 +3684,18 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
@@ -3627,215 +3703,215 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1046E6-8929-482A-A371-063123E2AC71}">
   <dimension ref="A2:A142"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
@@ -3961,37 +4037,37 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
